--- a/alphabet.xlsx
+++ b/alphabet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\учеба 6 сем\FaLP_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>алфавит исходника</t>
-  </si>
-  <si>
-    <t>алфавит шифра</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>б</t>
   </si>
@@ -450,369 +444,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="34" width="6.7109375" customWidth="1"/>
     <col min="35" max="36" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+    </row>
+    <row r="2" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1">
+        <v>18</v>
+      </c>
+      <c r="S2" s="1">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1">
+        <v>20</v>
+      </c>
+      <c r="U2" s="1">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1">
+        <v>23</v>
+      </c>
+      <c r="X2" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AG2" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>DEC2BIN(B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:AH3" si="0">DEC2BIN(C$1)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1001</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1101</v>
-      </c>
-      <c r="O3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1110</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1111</v>
-      </c>
-      <c r="Q3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10001</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10010</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10011</v>
-      </c>
-      <c r="U3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-      <c r="V3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10101</v>
-      </c>
-      <c r="W3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10110</v>
-      </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>10111</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11001</v>
-      </c>
-      <c r="AA3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11010</v>
-      </c>
-      <c r="AB3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11011</v>
-      </c>
-      <c r="AC3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11100</v>
-      </c>
-      <c r="AD3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11101</v>
-      </c>
-      <c r="AE3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11110</v>
-      </c>
-      <c r="AF3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>11111</v>
-      </c>
-      <c r="AG3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="AH3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
